--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value157.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value157.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.140391940974743</v>
+        <v>2.296321392059326</v>
       </c>
       <c r="B1">
-        <v>1.852787863217298</v>
+        <v>4.566006660461426</v>
       </c>
       <c r="C1">
-        <v>2.185315212777148</v>
+        <v>3.412265300750732</v>
       </c>
       <c r="D1">
-        <v>2.418040976379228</v>
+        <v>3.148736715316772</v>
       </c>
       <c r="E1">
-        <v>1.343106100119468</v>
+        <v>2.633186340332031</v>
       </c>
     </row>
   </sheetData>
